--- a/src/main/resources/templates/文件状态.xlsx
+++ b/src/main/resources/templates/文件状态.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\IdeaProjects\demo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCA28D5-E428-4267-A509-920004A9DCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86545ED9-05DC-421E-AC50-3FF6B31923D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>是否处理完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,28 +369,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.35546875" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.0703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/resources/templates/文件状态.xlsx
+++ b/src/main/resources/templates/文件状态.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\IdeaProjects\demo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86545ED9-05DC-421E-AC50-3FF6B31923D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95524B2-BF53-4448-A678-99049493C7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,12 +45,22 @@
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2023-10-31 20-42-53.jpg</t>
+  </si>
+  <si>
+    <t>2023-10-31 20-42-53</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -83,12 +93,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -369,34 +395,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.0703125" customWidth="1"/>
+    <col min="4" max="4" customWidth="true" width="6.85546875"/>
+    <col min="5" max="5" customWidth="true" width="12.0703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
